--- a/backend/data/plumData/plumTableData/plumPrice.xlsx
+++ b/backend/data/plumData/plumTableData/plumPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\projects\MY_PROJECTS\web_application\backend\data\plumData\plumTableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7336943A-09A7-474F-984A-2E0A49098900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605422E-9911-4195-8AA9-2CB7743AEC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4425" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
   </bookViews>
   <sheets>
     <sheet name="size" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="197">
   <si>
     <t>20mm</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>Reducing Faucet Elbow Brass</t>
+  </si>
+  <si>
+    <t>BrandId</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDC410-2645-479E-B85E-F5D25DF089AA}">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,10 +1952,11 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -1965,8 +1969,11 @@
       <c r="D1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1979,16 +1986,17 @@
       <c r="D2" s="3">
         <v>45</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="3"/>
+      <c r="F2" t="str">
         <f>_xlfn.CONCAT( "( ", B2,", ", C2,", ", D2,")")</f>
         <v>( 1, 1, 45)</v>
       </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">_xlfn.CONCAT("INSERT INTO plumfittingprice (plumFittingInfoId,plumPriceVersionId,plumFittingPrice) VALUES",(TRANSPOSE(E2:E187)&amp;","))</f>
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2">_xlfn.CONCAT("INSERT INTO plumfittingprice (plumFittingInfoId,plumPriceVersionId,plumFittingPrice) VALUES",(TRANSPOSE(F2:F187)&amp;","))</f>
         <v>INSERT INTO plumfittingprice (plumFittingInfoId,plumPriceVersionId,plumFittingPrice) VALUES( 1, 1, 45),( 2, 1, 70),( 3, 1, 105),( 4, 1, 150),( 5, 1, 215),( 6, 1, 295),( 7, 1, 425),( 8, 1, 875),( 9, 1, 1200),( 10, 1, 58),( 11, 1, 82),( 12, 1, 110),( 13, 1, 177),( 14, 1, 240),( 15, 1, 320),( 16, 1, 560),( 17, 1, 1040),( 18, 1, 1665),( 19, 1, 52),( 20, 1, 89),( 21, 1, 104),( 22, 1, 182),( 23, 1, 254),( 24, 1, 345),( 25, 1, 657),( 26, 1, 1053),( 27, 1, 1729),( 28, 1, 45),( 29, 1, 90),( 30, 1, 105),( 31, 1, 195),( 32, 1, 305),( 33, 1, 455),( 34, 1, 800),( 35, 1, 1275),( 36, 1, 2000),( 37, 1, 55),( 38, 1, 105),( 39, 1, 155),( 40, 1, 260),( 41, 1, 430),( 42, 1, 600),( 43, 1, 1000),( 44, 1, 1755),( 45, 1, 2665),( 46, 1, 72),( 47, 1, 104),( 48, 1, 156),( 49, 1, 330),( 50, 1, 540),( 51, 1, 930),( 52, 1, 1755),( 53, 1, 3550),( 54, 1, 5265),( 55, 1, 55),( 56, 1, 72),( 57, 1, 98),( 58, 1, 140),( 59, 1, 195),( 60, 1, 260),( 61, 1, 550),( 62, 1, 975),( 63, 1, 1160),( 64, 1, 23),( 65, 1, 30),( 66, 1, 33),( 67, 1, 39),( 68, 1, 40),( 69, 1, 45),( 70, 1, 145),( 71, 1, 155),( 72, 1, 295),( 73, 1, 52),( 74, 1, 85),( 75, 1, 120),( 76, 1, 185),( 77, 1, 265),( 78, 1, 435),( 79, 1, 70),( 80, 1, 90),( 81, 1, 105),( 82, 1, 125),( 83, 1, 150),( 84, 1, 165),( 85, 1, 180),( 86, 1, 200),( 87, 1, 235),( 88, 1, 245),( 89, 1, 305),( 90, 1, 310),( 91, 1, 325),( 92, 1, 340),( 93, 1, 345),( 94, 1, 525),( 95, 1, 535),( 96, 1, 545),( 97, 1, 585),( 98, 1, 620),( 99, 1, 670),( 100, 1, 730),( 101, 1, 820),( 102, 1, 1480),( 103, 1, 1550),( 104, 1, 1650),( 105, 1, 1820),( 106, 1, 104),( 107, 1, 145),( 108, 1, 155),( 109, 1, 210),( 110, 1, 245),( 111, 1, 255),( 112, 1, 305),( 113, 1, 340),( 114, 1, 350),( 115, 1, 405),( 116, 1, 645),( 117, 1, 650),( 118, 1, 665),( 119, 1, 670),( 120, 1, 675),( 121, 1, 1200),( 122, 1, 1220),( 123, 1, 1230),( 124, 1, 1255),( 125, 1, 1710),( 126, 1, 1790),( 127, 1, 1820),( 128, 1, 1835),( 129, 1, 2705),( 130, 1, 2840),( 131, 1, 2875),( 132, 1, 2940),( 133, 1, 130),( 134, 1, 135),( 135, 1, 105),( 136, 1, 130),( 137, 1, 165),( 138, 1, 200),( 139, 1, 295),( 140, 1, 240),( 141, 1, 275),( 142, 1, 350),( 143, 1, 190),( 144, 1, 220),( 145, 1, 145),( 143, 1, 25),( 144, 1, 35),( 145, 1, 45),( 146, 1, 240),( 147, 1, 295),( 148, 1, 405),( 149, 1, 1035),( 150, 1, 240),( 151, 1, 305),( 152, 1, 460),( 153, 1, 1000),( 154, 1, 275),( 155, 1, 395),( 156, 1, 615),( 157, 1, 1410),( 158, 1, 455),( 159, 1, 730),( 160, 1, 1620),( 161, 1, 255),( 162, 1, 460),( 163, 1, 645),( 164, 1, 1710),( 165, 1, 325),( 166, 1, 415),( 167, 1, 555),( 168, 1, 1515),( 169, 1, 325),( 170, 1, 435),( 171, 1, 690),( 172, 1, 1495),( 173, 1, 375),( 174, 1, 595),( 175, 1, 920),( 176, 1, 1785),( 177, 1, 505),( 178, 1, 740),( 179, 1, 2015),( 180, 1, 360),( 181, 1, 610),( 182, 1, 970),( 183, 1, 2140),</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2001,12 +2009,13 @@
       <c r="D3" s="3">
         <v>70</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT( "( ", B3,", ", C3,", ", D3,")")</f>
+      <c r="E3" s="3"/>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="0">_xlfn.CONCAT( "( ", B3,", ", C3,", ", D3,")")</f>
         <v>( 2, 1, 70)</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2019,12 +2028,13 @@
       <c r="D4" s="3">
         <v>105</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="3"/>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>( 3, 1, 105)</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2037,12 +2047,13 @@
       <c r="D5" s="3">
         <v>150</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="3"/>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>( 4, 1, 150)</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2055,12 +2066,13 @@
       <c r="D6" s="3">
         <v>215</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="3"/>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>( 5, 1, 215)</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2073,12 +2085,13 @@
       <c r="D7" s="3">
         <v>295</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="3"/>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>( 6, 1, 295)</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2091,12 +2104,13 @@
       <c r="D8" s="3">
         <v>425</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="3"/>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>( 7, 1, 425)</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2109,12 +2123,13 @@
       <c r="D9" s="3">
         <v>875</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="3"/>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>( 8, 1, 875)</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2127,12 +2142,13 @@
       <c r="D10" s="3">
         <v>1200</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="3"/>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>( 9, 1, 1200)</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2145,12 +2161,13 @@
       <c r="D11" s="4">
         <v>58</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="4"/>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>( 10, 1, 58)</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2163,12 +2180,13 @@
       <c r="D12" s="4">
         <v>82</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="4"/>
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>( 11, 1, 82)</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2181,12 +2199,13 @@
       <c r="D13" s="4">
         <v>110</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="4"/>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>( 12, 1, 110)</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2199,12 +2218,13 @@
       <c r="D14" s="4">
         <v>177</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="4"/>
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>( 13, 1, 177)</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2217,12 +2237,13 @@
       <c r="D15" s="4">
         <v>240</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="4"/>
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>( 14, 1, 240)</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2235,12 +2256,13 @@
       <c r="D16" s="4">
         <v>320</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="4"/>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>( 15, 1, 320)</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2253,12 +2275,13 @@
       <c r="D17" s="4">
         <v>560</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="4"/>
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>( 16, 1, 560)</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2271,12 +2294,13 @@
       <c r="D18" s="4">
         <v>1040</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="4"/>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>( 17, 1, 1040)</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2289,12 +2313,13 @@
       <c r="D19" s="4">
         <v>1665</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="4"/>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>( 18, 1, 1665)</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2307,12 +2332,13 @@
       <c r="D20" s="3">
         <v>52</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="3"/>
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>( 19, 1, 52)</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2325,12 +2351,13 @@
       <c r="D21" s="3">
         <v>89</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="3"/>
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>( 20, 1, 89)</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2343,12 +2370,13 @@
       <c r="D22" s="3">
         <v>104</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="3"/>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>( 21, 1, 104)</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2361,12 +2389,13 @@
       <c r="D23" s="3">
         <v>182</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="3"/>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>( 22, 1, 182)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2379,12 +2408,13 @@
       <c r="D24" s="3">
         <v>254</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="3"/>
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>( 23, 1, 254)</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2397,12 +2427,13 @@
       <c r="D25" s="3">
         <v>345</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="3"/>
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>( 24, 1, 345)</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2415,12 +2446,13 @@
       <c r="D26" s="3">
         <v>657</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="3"/>
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>( 25, 1, 657)</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2433,12 +2465,13 @@
       <c r="D27" s="3">
         <v>1053</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="3"/>
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>( 26, 1, 1053)</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2451,12 +2484,13 @@
       <c r="D28" s="3">
         <v>1729</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="3"/>
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>( 27, 1, 1729)</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2469,12 +2503,13 @@
       <c r="D29" s="4">
         <v>45</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="4"/>
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>( 28, 1, 45)</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2487,12 +2522,13 @@
       <c r="D30" s="4">
         <v>90</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="4"/>
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>( 29, 1, 90)</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2505,12 +2541,13 @@
       <c r="D31" s="4">
         <v>105</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" s="4"/>
+      <c r="F31" t="str">
         <f t="shared" si="0"/>
         <v>( 30, 1, 105)</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2523,12 +2560,13 @@
       <c r="D32" s="4">
         <v>195</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="4"/>
+      <c r="F32" t="str">
         <f t="shared" si="0"/>
         <v>( 31, 1, 195)</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2541,12 +2579,13 @@
       <c r="D33" s="4">
         <v>305</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" s="4"/>
+      <c r="F33" t="str">
         <f t="shared" si="0"/>
         <v>( 32, 1, 305)</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2559,12 +2598,13 @@
       <c r="D34" s="4">
         <v>455</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="4"/>
+      <c r="F34" t="str">
         <f t="shared" si="0"/>
         <v>( 33, 1, 455)</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2577,12 +2617,13 @@
       <c r="D35" s="4">
         <v>800</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" s="4"/>
+      <c r="F35" t="str">
         <f t="shared" si="0"/>
         <v>( 34, 1, 800)</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2595,12 +2636,13 @@
       <c r="D36" s="4">
         <v>1275</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" s="4"/>
+      <c r="F36" t="str">
         <f t="shared" si="0"/>
         <v>( 35, 1, 1275)</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2613,12 +2655,13 @@
       <c r="D37" s="4">
         <v>2000</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="4"/>
+      <c r="F37" t="str">
         <f t="shared" si="0"/>
         <v>( 36, 1, 2000)</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2631,12 +2674,13 @@
       <c r="D38" s="3">
         <v>55</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" s="3"/>
+      <c r="F38" t="str">
         <f t="shared" si="0"/>
         <v>( 37, 1, 55)</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2649,12 +2693,13 @@
       <c r="D39" s="3">
         <v>105</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="3"/>
+      <c r="F39" t="str">
         <f t="shared" si="0"/>
         <v>( 38, 1, 105)</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2667,12 +2712,13 @@
       <c r="D40" s="3">
         <v>155</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" s="3"/>
+      <c r="F40" t="str">
         <f t="shared" si="0"/>
         <v>( 39, 1, 155)</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2685,12 +2731,13 @@
       <c r="D41" s="3">
         <v>260</v>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" s="3"/>
+      <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>( 40, 1, 260)</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2703,12 +2750,13 @@
       <c r="D42" s="3">
         <v>430</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="3"/>
+      <c r="F42" t="str">
         <f t="shared" si="0"/>
         <v>( 41, 1, 430)</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2721,12 +2769,13 @@
       <c r="D43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="3"/>
+      <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v>( 42, 1, 600)</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2739,12 +2788,13 @@
       <c r="D44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="3"/>
+      <c r="F44" t="str">
         <f t="shared" si="0"/>
         <v>( 43, 1, 1000)</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2757,12 +2807,13 @@
       <c r="D45" s="3">
         <v>1755</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="3"/>
+      <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v>( 44, 1, 1755)</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2775,12 +2826,13 @@
       <c r="D46" s="3">
         <v>2665</v>
       </c>
-      <c r="E46" t="str">
+      <c r="E46" s="3"/>
+      <c r="F46" t="str">
         <f t="shared" si="0"/>
         <v>( 45, 1, 2665)</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2793,12 +2845,13 @@
       <c r="D47" s="4">
         <v>72</v>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="4"/>
+      <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v>( 46, 1, 72)</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2811,12 +2864,13 @@
       <c r="D48" s="4">
         <v>104</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E48" s="4"/>
+      <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v>( 47, 1, 104)</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2829,12 +2883,13 @@
       <c r="D49" s="4">
         <v>156</v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="4"/>
+      <c r="F49" t="str">
         <f t="shared" si="0"/>
         <v>( 48, 1, 156)</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2847,12 +2902,13 @@
       <c r="D50" s="4">
         <v>330</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E50" s="4"/>
+      <c r="F50" t="str">
         <f t="shared" si="0"/>
         <v>( 49, 1, 330)</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2865,12 +2921,13 @@
       <c r="D51" s="4">
         <v>540</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E51" s="4"/>
+      <c r="F51" t="str">
         <f t="shared" si="0"/>
         <v>( 50, 1, 540)</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2883,12 +2940,13 @@
       <c r="D52" s="4">
         <v>930</v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="4"/>
+      <c r="F52" t="str">
         <f t="shared" si="0"/>
         <v>( 51, 1, 930)</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2901,12 +2959,13 @@
       <c r="D53" s="4">
         <v>1755</v>
       </c>
-      <c r="E53" t="str">
+      <c r="E53" s="4"/>
+      <c r="F53" t="str">
         <f t="shared" si="0"/>
         <v>( 52, 1, 1755)</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2919,12 +2978,13 @@
       <c r="D54" s="4">
         <v>3550</v>
       </c>
-      <c r="E54" t="str">
+      <c r="E54" s="4"/>
+      <c r="F54" t="str">
         <f t="shared" si="0"/>
         <v>( 53, 1, 3550)</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2937,12 +2997,13 @@
       <c r="D55" s="4">
         <v>5265</v>
       </c>
-      <c r="E55" t="str">
+      <c r="E55" s="4"/>
+      <c r="F55" t="str">
         <f t="shared" si="0"/>
         <v>( 54, 1, 5265)</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2955,12 +3016,13 @@
       <c r="D56" s="3">
         <v>55</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E56" s="3"/>
+      <c r="F56" t="str">
         <f t="shared" si="0"/>
         <v>( 55, 1, 55)</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2973,12 +3035,13 @@
       <c r="D57" s="3">
         <v>72</v>
       </c>
-      <c r="E57" t="str">
+      <c r="E57" s="3"/>
+      <c r="F57" t="str">
         <f t="shared" si="0"/>
         <v>( 56, 1, 72)</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2991,12 +3054,13 @@
       <c r="D58" s="3">
         <v>98</v>
       </c>
-      <c r="E58" t="str">
+      <c r="E58" s="3"/>
+      <c r="F58" t="str">
         <f t="shared" si="0"/>
         <v>( 57, 1, 98)</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3009,12 +3073,13 @@
       <c r="D59" s="3">
         <v>140</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E59" s="3"/>
+      <c r="F59" t="str">
         <f t="shared" si="0"/>
         <v>( 58, 1, 140)</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3027,12 +3092,13 @@
       <c r="D60" s="3">
         <v>195</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E60" s="3"/>
+      <c r="F60" t="str">
         <f t="shared" si="0"/>
         <v>( 59, 1, 195)</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3045,12 +3111,13 @@
       <c r="D61" s="3">
         <v>260</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="3"/>
+      <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>( 60, 1, 260)</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3063,12 +3130,13 @@
       <c r="D62" s="3">
         <v>550</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E62" s="3"/>
+      <c r="F62" t="str">
         <f t="shared" si="0"/>
         <v>( 61, 1, 550)</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3081,12 +3149,13 @@
       <c r="D63" s="3">
         <v>975</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E63" s="3"/>
+      <c r="F63" t="str">
         <f t="shared" si="0"/>
         <v>( 62, 1, 975)</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3099,12 +3168,13 @@
       <c r="D64" s="3">
         <v>1160</v>
       </c>
-      <c r="E64" t="str">
+      <c r="E64" s="3"/>
+      <c r="F64" t="str">
         <f t="shared" si="0"/>
         <v>( 63, 1, 1160)</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3117,12 +3187,13 @@
       <c r="D65" s="4">
         <v>23</v>
       </c>
-      <c r="E65" t="str">
+      <c r="E65" s="4"/>
+      <c r="F65" t="str">
         <f t="shared" si="0"/>
         <v>( 64, 1, 23)</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3135,12 +3206,13 @@
       <c r="D66" s="4">
         <v>30</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E66" s="4"/>
+      <c r="F66" t="str">
         <f t="shared" si="0"/>
         <v>( 65, 1, 30)</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3153,12 +3225,13 @@
       <c r="D67" s="4">
         <v>33</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">_xlfn.CONCAT( "( ", B67,", ", C67,", ", D67,")")</f>
+      <c r="E67" s="4"/>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F130" si="1">_xlfn.CONCAT( "( ", B67,", ", C67,", ", D67,")")</f>
         <v>( 66, 1, 33)</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3171,12 +3244,13 @@
       <c r="D68" s="4">
         <v>39</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E68" s="4"/>
+      <c r="F68" t="str">
         <f t="shared" si="1"/>
         <v>( 67, 1, 39)</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3189,12 +3263,13 @@
       <c r="D69" s="4">
         <v>40</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E69" s="4"/>
+      <c r="F69" t="str">
         <f t="shared" si="1"/>
         <v>( 68, 1, 40)</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3207,12 +3282,13 @@
       <c r="D70" s="4">
         <v>45</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E70" s="4"/>
+      <c r="F70" t="str">
         <f t="shared" si="1"/>
         <v>( 69, 1, 45)</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3225,12 +3301,13 @@
       <c r="D71" s="4">
         <v>145</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E71" s="4"/>
+      <c r="F71" t="str">
         <f t="shared" si="1"/>
         <v>( 70, 1, 145)</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3243,12 +3320,13 @@
       <c r="D72" s="4">
         <v>155</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E72" s="4"/>
+      <c r="F72" t="str">
         <f t="shared" si="1"/>
         <v>( 71, 1, 155)</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3261,12 +3339,13 @@
       <c r="D73" s="4">
         <v>295</v>
       </c>
-      <c r="E73" t="str">
+      <c r="E73" s="4"/>
+      <c r="F73" t="str">
         <f t="shared" si="1"/>
         <v>( 72, 1, 295)</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3279,12 +3358,13 @@
       <c r="D74" s="3">
         <v>52</v>
       </c>
-      <c r="E74" t="str">
+      <c r="E74" s="3"/>
+      <c r="F74" t="str">
         <f t="shared" si="1"/>
         <v>( 73, 1, 52)</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3297,12 +3377,13 @@
       <c r="D75" s="3">
         <v>85</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E75" s="3"/>
+      <c r="F75" t="str">
         <f t="shared" si="1"/>
         <v>( 74, 1, 85)</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3315,12 +3396,13 @@
       <c r="D76" s="3">
         <v>120</v>
       </c>
-      <c r="E76" t="str">
+      <c r="E76" s="3"/>
+      <c r="F76" t="str">
         <f t="shared" si="1"/>
         <v>( 75, 1, 120)</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3333,12 +3415,13 @@
       <c r="D77" s="3">
         <v>185</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E77" s="3"/>
+      <c r="F77" t="str">
         <f t="shared" si="1"/>
         <v>( 76, 1, 185)</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3351,12 +3434,13 @@
       <c r="D78" s="3">
         <v>265</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E78" s="3"/>
+      <c r="F78" t="str">
         <f t="shared" si="1"/>
         <v>( 77, 1, 265)</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3369,12 +3453,13 @@
       <c r="D79" s="3">
         <v>435</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E79" s="3"/>
+      <c r="F79" t="str">
         <f t="shared" si="1"/>
         <v>( 78, 1, 435)</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3387,12 +3472,13 @@
       <c r="D80" s="4">
         <v>70</v>
       </c>
-      <c r="E80" t="str">
+      <c r="E80" s="4"/>
+      <c r="F80" t="str">
         <f t="shared" si="1"/>
         <v>( 79, 1, 70)</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3405,12 +3491,13 @@
       <c r="D81" s="4">
         <v>90</v>
       </c>
-      <c r="E81" t="str">
+      <c r="E81" s="4"/>
+      <c r="F81" t="str">
         <f t="shared" si="1"/>
         <v>( 80, 1, 90)</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -3423,12 +3510,13 @@
       <c r="D82" s="4">
         <v>105</v>
       </c>
-      <c r="E82" t="str">
+      <c r="E82" s="4"/>
+      <c r="F82" t="str">
         <f t="shared" si="1"/>
         <v>( 81, 1, 105)</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3441,12 +3529,13 @@
       <c r="D83" s="4">
         <v>125</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="4"/>
+      <c r="F83" t="str">
         <f t="shared" si="1"/>
         <v>( 82, 1, 125)</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -3459,12 +3548,13 @@
       <c r="D84" s="4">
         <v>150</v>
       </c>
-      <c r="E84" t="str">
+      <c r="E84" s="4"/>
+      <c r="F84" t="str">
         <f t="shared" si="1"/>
         <v>( 83, 1, 150)</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -3477,12 +3567,13 @@
       <c r="D85" s="4">
         <v>165</v>
       </c>
-      <c r="E85" t="str">
+      <c r="E85" s="4"/>
+      <c r="F85" t="str">
         <f t="shared" si="1"/>
         <v>( 84, 1, 165)</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -3495,12 +3586,13 @@
       <c r="D86" s="4">
         <v>180</v>
       </c>
-      <c r="E86" t="str">
+      <c r="E86" s="4"/>
+      <c r="F86" t="str">
         <f t="shared" si="1"/>
         <v>( 85, 1, 180)</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3513,12 +3605,13 @@
       <c r="D87" s="4">
         <v>200</v>
       </c>
-      <c r="E87" t="str">
+      <c r="E87" s="4"/>
+      <c r="F87" t="str">
         <f t="shared" si="1"/>
         <v>( 86, 1, 200)</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3531,12 +3624,13 @@
       <c r="D88" s="4">
         <v>235</v>
       </c>
-      <c r="E88" t="str">
+      <c r="E88" s="4"/>
+      <c r="F88" t="str">
         <f t="shared" si="1"/>
         <v>( 87, 1, 235)</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3549,12 +3643,13 @@
       <c r="D89" s="4">
         <v>245</v>
       </c>
-      <c r="E89" t="str">
+      <c r="E89" s="4"/>
+      <c r="F89" t="str">
         <f t="shared" si="1"/>
         <v>( 88, 1, 245)</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -3567,12 +3662,13 @@
       <c r="D90" s="4">
         <v>305</v>
       </c>
-      <c r="E90" t="str">
+      <c r="E90" s="4"/>
+      <c r="F90" t="str">
         <f t="shared" si="1"/>
         <v>( 89, 1, 305)</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -3585,12 +3681,13 @@
       <c r="D91" s="4">
         <v>310</v>
       </c>
-      <c r="E91" t="str">
+      <c r="E91" s="4"/>
+      <c r="F91" t="str">
         <f t="shared" si="1"/>
         <v>( 90, 1, 310)</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -3603,12 +3700,13 @@
       <c r="D92" s="4">
         <v>325</v>
       </c>
-      <c r="E92" t="str">
+      <c r="E92" s="4"/>
+      <c r="F92" t="str">
         <f t="shared" si="1"/>
         <v>( 91, 1, 325)</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -3621,12 +3719,13 @@
       <c r="D93" s="4">
         <v>340</v>
       </c>
-      <c r="E93" t="str">
+      <c r="E93" s="4"/>
+      <c r="F93" t="str">
         <f t="shared" si="1"/>
         <v>( 92, 1, 340)</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -3639,12 +3738,13 @@
       <c r="D94" s="4">
         <v>345</v>
       </c>
-      <c r="E94" t="str">
+      <c r="E94" s="4"/>
+      <c r="F94" t="str">
         <f t="shared" si="1"/>
         <v>( 93, 1, 345)</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -3657,12 +3757,13 @@
       <c r="D95" s="4">
         <v>525</v>
       </c>
-      <c r="E95" t="str">
+      <c r="E95" s="4"/>
+      <c r="F95" t="str">
         <f t="shared" si="1"/>
         <v>( 94, 1, 525)</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -3675,12 +3776,13 @@
       <c r="D96" s="4">
         <v>535</v>
       </c>
-      <c r="E96" t="str">
+      <c r="E96" s="4"/>
+      <c r="F96" t="str">
         <f t="shared" si="1"/>
         <v>( 95, 1, 535)</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -3693,12 +3795,13 @@
       <c r="D97" s="4">
         <v>545</v>
       </c>
-      <c r="E97" t="str">
+      <c r="E97" s="4"/>
+      <c r="F97" t="str">
         <f t="shared" si="1"/>
         <v>( 96, 1, 545)</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -3711,12 +3814,13 @@
       <c r="D98" s="4">
         <v>585</v>
       </c>
-      <c r="E98" t="str">
+      <c r="E98" s="4"/>
+      <c r="F98" t="str">
         <f t="shared" si="1"/>
         <v>( 97, 1, 585)</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -3729,12 +3833,13 @@
       <c r="D99" s="4">
         <v>620</v>
       </c>
-      <c r="E99" t="str">
+      <c r="E99" s="4"/>
+      <c r="F99" t="str">
         <f t="shared" si="1"/>
         <v>( 98, 1, 620)</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -3747,12 +3852,13 @@
       <c r="D100" s="4">
         <v>670</v>
       </c>
-      <c r="E100" t="str">
+      <c r="E100" s="4"/>
+      <c r="F100" t="str">
         <f t="shared" si="1"/>
         <v>( 99, 1, 670)</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -3765,12 +3871,13 @@
       <c r="D101" s="4">
         <v>730</v>
       </c>
-      <c r="E101" t="str">
+      <c r="E101" s="4"/>
+      <c r="F101" t="str">
         <f t="shared" si="1"/>
         <v>( 100, 1, 730)</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -3783,12 +3890,13 @@
       <c r="D102" s="4">
         <v>820</v>
       </c>
-      <c r="E102" t="str">
+      <c r="E102" s="4"/>
+      <c r="F102" t="str">
         <f t="shared" si="1"/>
         <v>( 101, 1, 820)</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -3801,12 +3909,13 @@
       <c r="D103" s="4">
         <v>1480</v>
       </c>
-      <c r="E103" t="str">
+      <c r="E103" s="4"/>
+      <c r="F103" t="str">
         <f t="shared" si="1"/>
         <v>( 102, 1, 1480)</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -3819,12 +3928,13 @@
       <c r="D104" s="4">
         <v>1550</v>
       </c>
-      <c r="E104" t="str">
+      <c r="E104" s="4"/>
+      <c r="F104" t="str">
         <f t="shared" si="1"/>
         <v>( 103, 1, 1550)</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -3837,12 +3947,13 @@
       <c r="D105" s="4">
         <v>1650</v>
       </c>
-      <c r="E105" t="str">
+      <c r="E105" s="4"/>
+      <c r="F105" t="str">
         <f t="shared" si="1"/>
         <v>( 104, 1, 1650)</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -3855,12 +3966,13 @@
       <c r="D106" s="4">
         <v>1820</v>
       </c>
-      <c r="E106" t="str">
+      <c r="E106" s="4"/>
+      <c r="F106" t="str">
         <f t="shared" si="1"/>
         <v>( 105, 1, 1820)</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -3873,12 +3985,13 @@
       <c r="D107" s="3">
         <v>104</v>
       </c>
-      <c r="E107" t="str">
+      <c r="E107" s="3"/>
+      <c r="F107" t="str">
         <f t="shared" si="1"/>
         <v>( 106, 1, 104)</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -3891,12 +4004,13 @@
       <c r="D108" s="3">
         <v>145</v>
       </c>
-      <c r="E108" t="str">
+      <c r="E108" s="3"/>
+      <c r="F108" t="str">
         <f t="shared" si="1"/>
         <v>( 107, 1, 145)</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -3909,12 +4023,13 @@
       <c r="D109" s="3">
         <v>155</v>
       </c>
-      <c r="E109" t="str">
+      <c r="E109" s="3"/>
+      <c r="F109" t="str">
         <f t="shared" si="1"/>
         <v>( 108, 1, 155)</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -3927,12 +4042,13 @@
       <c r="D110" s="3">
         <v>210</v>
       </c>
-      <c r="E110" t="str">
+      <c r="E110" s="3"/>
+      <c r="F110" t="str">
         <f t="shared" si="1"/>
         <v>( 109, 1, 210)</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -3945,12 +4061,13 @@
       <c r="D111" s="3">
         <v>245</v>
       </c>
-      <c r="E111" t="str">
+      <c r="E111" s="3"/>
+      <c r="F111" t="str">
         <f t="shared" si="1"/>
         <v>( 110, 1, 245)</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -3963,12 +4080,13 @@
       <c r="D112" s="3">
         <v>255</v>
       </c>
-      <c r="E112" t="str">
+      <c r="E112" s="3"/>
+      <c r="F112" t="str">
         <f t="shared" si="1"/>
         <v>( 111, 1, 255)</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -3981,12 +4099,13 @@
       <c r="D113" s="3">
         <v>305</v>
       </c>
-      <c r="E113" t="str">
+      <c r="E113" s="3"/>
+      <c r="F113" t="str">
         <f t="shared" si="1"/>
         <v>( 112, 1, 305)</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -3999,12 +4118,13 @@
       <c r="D114" s="3">
         <v>340</v>
       </c>
-      <c r="E114" t="str">
+      <c r="E114" s="3"/>
+      <c r="F114" t="str">
         <f t="shared" si="1"/>
         <v>( 113, 1, 340)</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4017,12 +4137,13 @@
       <c r="D115" s="3">
         <v>350</v>
       </c>
-      <c r="E115" t="str">
+      <c r="E115" s="3"/>
+      <c r="F115" t="str">
         <f t="shared" si="1"/>
         <v>( 114, 1, 350)</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4035,12 +4156,13 @@
       <c r="D116" s="3">
         <v>405</v>
       </c>
-      <c r="E116" t="str">
+      <c r="E116" s="3"/>
+      <c r="F116" t="str">
         <f t="shared" si="1"/>
         <v>( 115, 1, 405)</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4053,12 +4175,13 @@
       <c r="D117" s="3">
         <v>645</v>
       </c>
-      <c r="E117" t="str">
+      <c r="E117" s="3"/>
+      <c r="F117" t="str">
         <f t="shared" si="1"/>
         <v>( 116, 1, 645)</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4071,12 +4194,13 @@
       <c r="D118" s="3">
         <v>650</v>
       </c>
-      <c r="E118" t="str">
+      <c r="E118" s="3"/>
+      <c r="F118" t="str">
         <f t="shared" si="1"/>
         <v>( 117, 1, 650)</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4089,12 +4213,13 @@
       <c r="D119" s="3">
         <v>665</v>
       </c>
-      <c r="E119" t="str">
+      <c r="E119" s="3"/>
+      <c r="F119" t="str">
         <f t="shared" si="1"/>
         <v>( 118, 1, 665)</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4107,12 +4232,13 @@
       <c r="D120" s="3">
         <v>670</v>
       </c>
-      <c r="E120" t="str">
+      <c r="E120" s="3"/>
+      <c r="F120" t="str">
         <f t="shared" si="1"/>
         <v>( 119, 1, 670)</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4125,12 +4251,13 @@
       <c r="D121" s="3">
         <v>675</v>
       </c>
-      <c r="E121" t="str">
+      <c r="E121" s="3"/>
+      <c r="F121" t="str">
         <f t="shared" si="1"/>
         <v>( 120, 1, 675)</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4143,12 +4270,13 @@
       <c r="D122" s="3">
         <v>1200</v>
       </c>
-      <c r="E122" t="str">
+      <c r="E122" s="3"/>
+      <c r="F122" t="str">
         <f t="shared" si="1"/>
         <v>( 121, 1, 1200)</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4161,12 +4289,13 @@
       <c r="D123" s="3">
         <v>1220</v>
       </c>
-      <c r="E123" t="str">
+      <c r="E123" s="3"/>
+      <c r="F123" t="str">
         <f t="shared" si="1"/>
         <v>( 122, 1, 1220)</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4179,12 +4308,13 @@
       <c r="D124" s="3">
         <v>1230</v>
       </c>
-      <c r="E124" t="str">
+      <c r="E124" s="3"/>
+      <c r="F124" t="str">
         <f t="shared" si="1"/>
         <v>( 123, 1, 1230)</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4197,12 +4327,13 @@
       <c r="D125" s="3">
         <v>1255</v>
       </c>
-      <c r="E125" t="str">
+      <c r="E125" s="3"/>
+      <c r="F125" t="str">
         <f t="shared" si="1"/>
         <v>( 124, 1, 1255)</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4215,12 +4346,13 @@
       <c r="D126" s="3">
         <v>1710</v>
       </c>
-      <c r="E126" t="str">
+      <c r="E126" s="3"/>
+      <c r="F126" t="str">
         <f t="shared" si="1"/>
         <v>( 125, 1, 1710)</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -4233,12 +4365,13 @@
       <c r="D127" s="3">
         <v>1790</v>
       </c>
-      <c r="E127" t="str">
+      <c r="E127" s="3"/>
+      <c r="F127" t="str">
         <f t="shared" si="1"/>
         <v>( 126, 1, 1790)</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -4251,12 +4384,13 @@
       <c r="D128" s="3">
         <v>1820</v>
       </c>
-      <c r="E128" t="str">
+      <c r="E128" s="3"/>
+      <c r="F128" t="str">
         <f t="shared" si="1"/>
         <v>( 127, 1, 1820)</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -4269,12 +4403,13 @@
       <c r="D129" s="3">
         <v>1835</v>
       </c>
-      <c r="E129" t="str">
+      <c r="E129" s="3"/>
+      <c r="F129" t="str">
         <f t="shared" si="1"/>
         <v>( 128, 1, 1835)</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -4287,12 +4422,13 @@
       <c r="D130" s="3">
         <v>2705</v>
       </c>
-      <c r="E130" t="str">
+      <c r="E130" s="3"/>
+      <c r="F130" t="str">
         <f t="shared" si="1"/>
         <v>( 129, 1, 2705)</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -4305,12 +4441,13 @@
       <c r="D131" s="3">
         <v>2840</v>
       </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E187" si="2">_xlfn.CONCAT( "( ", B131,", ", C131,", ", D131,")")</f>
+      <c r="E131" s="3"/>
+      <c r="F131" t="str">
+        <f t="shared" ref="F131:F187" si="2">_xlfn.CONCAT( "( ", B131,", ", C131,", ", D131,")")</f>
         <v>( 130, 1, 2840)</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -4323,12 +4460,13 @@
       <c r="D132" s="3">
         <v>2875</v>
       </c>
-      <c r="E132" t="str">
+      <c r="E132" s="3"/>
+      <c r="F132" t="str">
         <f t="shared" si="2"/>
         <v>( 131, 1, 2875)</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -4341,12 +4479,13 @@
       <c r="D133" s="3">
         <v>2940</v>
       </c>
-      <c r="E133" t="str">
+      <c r="E133" s="3"/>
+      <c r="F133" t="str">
         <f t="shared" si="2"/>
         <v>( 132, 1, 2940)</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -4359,12 +4498,13 @@
       <c r="D134" s="4">
         <v>130</v>
       </c>
-      <c r="E134" t="str">
+      <c r="E134" s="4"/>
+      <c r="F134" t="str">
         <f t="shared" si="2"/>
         <v>( 133, 1, 130)</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -4377,12 +4517,13 @@
       <c r="D135" s="4">
         <v>135</v>
       </c>
-      <c r="E135" t="str">
+      <c r="E135" s="4"/>
+      <c r="F135" t="str">
         <f t="shared" si="2"/>
         <v>( 134, 1, 135)</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -4395,12 +4536,13 @@
       <c r="D136" s="3">
         <v>105</v>
       </c>
-      <c r="E136" t="str">
+      <c r="E136" s="3"/>
+      <c r="F136" t="str">
         <f t="shared" si="2"/>
         <v>( 135, 1, 105)</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -4413,12 +4555,13 @@
       <c r="D137" s="3">
         <v>130</v>
       </c>
-      <c r="E137" t="str">
+      <c r="E137" s="3"/>
+      <c r="F137" t="str">
         <f t="shared" si="2"/>
         <v>( 136, 1, 130)</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -4431,12 +4574,13 @@
       <c r="D138" s="4">
         <v>165</v>
       </c>
-      <c r="E138" t="str">
+      <c r="E138" s="4"/>
+      <c r="F138" t="str">
         <f t="shared" si="2"/>
         <v>( 137, 1, 165)</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -4449,12 +4593,13 @@
       <c r="D139" s="4">
         <v>200</v>
       </c>
-      <c r="E139" t="str">
+      <c r="E139" s="4"/>
+      <c r="F139" t="str">
         <f t="shared" si="2"/>
         <v>( 138, 1, 200)</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -4467,12 +4612,13 @@
       <c r="D140" s="4">
         <v>295</v>
       </c>
-      <c r="E140" t="str">
+      <c r="E140" s="4"/>
+      <c r="F140" t="str">
         <f t="shared" si="2"/>
         <v>( 139, 1, 295)</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -4485,12 +4631,13 @@
       <c r="D141" s="3">
         <v>240</v>
       </c>
-      <c r="E141" t="str">
+      <c r="E141" s="3"/>
+      <c r="F141" t="str">
         <f t="shared" si="2"/>
         <v>( 140, 1, 240)</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -4503,12 +4650,13 @@
       <c r="D142" s="3">
         <v>275</v>
       </c>
-      <c r="E142" t="str">
+      <c r="E142" s="3"/>
+      <c r="F142" t="str">
         <f t="shared" si="2"/>
         <v>( 141, 1, 275)</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -4521,12 +4669,13 @@
       <c r="D143" s="3">
         <v>350</v>
       </c>
-      <c r="E143" t="str">
+      <c r="E143" s="3"/>
+      <c r="F143" t="str">
         <f t="shared" si="2"/>
         <v>( 142, 1, 350)</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -4539,12 +4688,13 @@
       <c r="D144" s="5">
         <v>190</v>
       </c>
-      <c r="E144" t="str">
+      <c r="E144" s="5"/>
+      <c r="F144" t="str">
         <f t="shared" si="2"/>
         <v>( 143, 1, 190)</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -4557,12 +4707,13 @@
       <c r="D145" s="5">
         <v>220</v>
       </c>
-      <c r="E145" t="str">
+      <c r="E145" s="5"/>
+      <c r="F145" t="str">
         <f t="shared" si="2"/>
         <v>( 144, 1, 220)</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -4575,12 +4726,13 @@
       <c r="D146" s="5">
         <v>145</v>
       </c>
-      <c r="E146" t="str">
+      <c r="E146" s="5"/>
+      <c r="F146" t="str">
         <f t="shared" si="2"/>
         <v>( 145, 1, 145)</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -4593,12 +4745,13 @@
       <c r="D147" s="4">
         <v>25</v>
       </c>
-      <c r="E147" t="str">
+      <c r="E147" s="4"/>
+      <c r="F147" t="str">
         <f t="shared" si="2"/>
         <v>( 143, 1, 25)</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -4611,12 +4764,13 @@
       <c r="D148" s="4">
         <v>35</v>
       </c>
-      <c r="E148" t="str">
+      <c r="E148" s="4"/>
+      <c r="F148" t="str">
         <f t="shared" si="2"/>
         <v>( 144, 1, 35)</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -4629,12 +4783,13 @@
       <c r="D149" s="4">
         <v>45</v>
       </c>
-      <c r="E149" t="str">
+      <c r="E149" s="4"/>
+      <c r="F149" t="str">
         <f t="shared" si="2"/>
         <v>( 145, 1, 45)</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -4647,12 +4802,13 @@
       <c r="D150" s="3">
         <v>240</v>
       </c>
-      <c r="E150" t="str">
+      <c r="E150" s="3"/>
+      <c r="F150" t="str">
         <f t="shared" si="2"/>
         <v>( 146, 1, 240)</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -4665,12 +4821,13 @@
       <c r="D151" s="3">
         <v>295</v>
       </c>
-      <c r="E151" t="str">
+      <c r="E151" s="3"/>
+      <c r="F151" t="str">
         <f t="shared" si="2"/>
         <v>( 147, 1, 295)</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -4683,12 +4840,13 @@
       <c r="D152" s="3">
         <v>405</v>
       </c>
-      <c r="E152" t="str">
+      <c r="E152" s="3"/>
+      <c r="F152" t="str">
         <f t="shared" si="2"/>
         <v>( 148, 1, 405)</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -4701,12 +4859,13 @@
       <c r="D153" s="3">
         <v>1035</v>
       </c>
-      <c r="E153" t="str">
+      <c r="E153" s="3"/>
+      <c r="F153" t="str">
         <f t="shared" si="2"/>
         <v>( 149, 1, 1035)</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -4719,12 +4878,13 @@
       <c r="D154" s="4">
         <v>240</v>
       </c>
-      <c r="E154" t="str">
+      <c r="E154" s="4"/>
+      <c r="F154" t="str">
         <f t="shared" si="2"/>
         <v>( 150, 1, 240)</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -4737,12 +4897,13 @@
       <c r="D155" s="4">
         <v>305</v>
       </c>
-      <c r="E155" t="str">
+      <c r="E155" s="4"/>
+      <c r="F155" t="str">
         <f t="shared" si="2"/>
         <v>( 151, 1, 305)</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -4755,12 +4916,13 @@
       <c r="D156" s="4">
         <v>460</v>
       </c>
-      <c r="E156" t="str">
+      <c r="E156" s="4"/>
+      <c r="F156" t="str">
         <f t="shared" si="2"/>
         <v>( 152, 1, 460)</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -4773,12 +4935,13 @@
       <c r="D157" s="4">
         <v>1000</v>
       </c>
-      <c r="E157" t="str">
+      <c r="E157" s="4"/>
+      <c r="F157" t="str">
         <f t="shared" si="2"/>
         <v>( 153, 1, 1000)</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -4791,12 +4954,13 @@
       <c r="D158" s="3">
         <v>275</v>
       </c>
-      <c r="E158" t="str">
+      <c r="E158" s="3"/>
+      <c r="F158" t="str">
         <f t="shared" si="2"/>
         <v>( 154, 1, 275)</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -4809,12 +4973,13 @@
       <c r="D159" s="3">
         <v>395</v>
       </c>
-      <c r="E159" t="str">
+      <c r="E159" s="3"/>
+      <c r="F159" t="str">
         <f t="shared" si="2"/>
         <v>( 155, 1, 395)</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -4827,12 +4992,13 @@
       <c r="D160" s="3">
         <v>615</v>
       </c>
-      <c r="E160" t="str">
+      <c r="E160" s="3"/>
+      <c r="F160" t="str">
         <f t="shared" si="2"/>
         <v>( 156, 1, 615)</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -4845,12 +5011,13 @@
       <c r="D161" s="3">
         <v>1410</v>
       </c>
-      <c r="E161" t="str">
+      <c r="E161" s="3"/>
+      <c r="F161" t="str">
         <f t="shared" si="2"/>
         <v>( 157, 1, 1410)</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -4863,12 +5030,13 @@
       <c r="D162" s="4">
         <v>455</v>
       </c>
-      <c r="E162" t="str">
+      <c r="E162" s="4"/>
+      <c r="F162" t="str">
         <f t="shared" si="2"/>
         <v>( 158, 1, 455)</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -4881,12 +5049,13 @@
       <c r="D163" s="4">
         <v>730</v>
       </c>
-      <c r="E163" t="str">
+      <c r="E163" s="4"/>
+      <c r="F163" t="str">
         <f t="shared" si="2"/>
         <v>( 159, 1, 730)</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -4899,12 +5068,13 @@
       <c r="D164" s="4">
         <v>1620</v>
       </c>
-      <c r="E164" t="str">
+      <c r="E164" s="4"/>
+      <c r="F164" t="str">
         <f t="shared" si="2"/>
         <v>( 160, 1, 1620)</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -4917,12 +5087,13 @@
       <c r="D165" s="3">
         <v>255</v>
       </c>
-      <c r="E165" t="str">
+      <c r="E165" s="3"/>
+      <c r="F165" t="str">
         <f t="shared" si="2"/>
         <v>( 161, 1, 255)</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -4935,12 +5106,13 @@
       <c r="D166" s="3">
         <v>460</v>
       </c>
-      <c r="E166" t="str">
+      <c r="E166" s="3"/>
+      <c r="F166" t="str">
         <f t="shared" si="2"/>
         <v>( 162, 1, 460)</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -4953,12 +5125,13 @@
       <c r="D167" s="3">
         <v>645</v>
       </c>
-      <c r="E167" t="str">
+      <c r="E167" s="3"/>
+      <c r="F167" t="str">
         <f t="shared" si="2"/>
         <v>( 163, 1, 645)</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -4971,12 +5144,13 @@
       <c r="D168" s="3">
         <v>1710</v>
       </c>
-      <c r="E168" t="str">
+      <c r="E168" s="3"/>
+      <c r="F168" t="str">
         <f t="shared" si="2"/>
         <v>( 164, 1, 1710)</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -4989,12 +5163,13 @@
       <c r="D169" s="4">
         <v>325</v>
       </c>
-      <c r="E169" t="str">
+      <c r="E169" s="4"/>
+      <c r="F169" t="str">
         <f t="shared" si="2"/>
         <v>( 165, 1, 325)</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -5007,12 +5182,13 @@
       <c r="D170" s="4">
         <v>415</v>
       </c>
-      <c r="E170" t="str">
+      <c r="E170" s="4"/>
+      <c r="F170" t="str">
         <f t="shared" si="2"/>
         <v>( 166, 1, 415)</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -5025,12 +5201,13 @@
       <c r="D171" s="4">
         <v>555</v>
       </c>
-      <c r="E171" t="str">
+      <c r="E171" s="4"/>
+      <c r="F171" t="str">
         <f t="shared" si="2"/>
         <v>( 167, 1, 555)</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -5043,12 +5220,13 @@
       <c r="D172" s="4">
         <v>1515</v>
       </c>
-      <c r="E172" t="str">
+      <c r="E172" s="4"/>
+      <c r="F172" t="str">
         <f t="shared" si="2"/>
         <v>( 168, 1, 1515)</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -5061,12 +5239,13 @@
       <c r="D173" s="3">
         <v>325</v>
       </c>
-      <c r="E173" t="str">
+      <c r="E173" s="3"/>
+      <c r="F173" t="str">
         <f t="shared" si="2"/>
         <v>( 169, 1, 325)</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -5079,12 +5258,13 @@
       <c r="D174" s="3">
         <v>435</v>
       </c>
-      <c r="E174" t="str">
+      <c r="E174" s="3"/>
+      <c r="F174" t="str">
         <f t="shared" si="2"/>
         <v>( 170, 1, 435)</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -5097,12 +5277,13 @@
       <c r="D175" s="3">
         <v>690</v>
       </c>
-      <c r="E175" t="str">
+      <c r="E175" s="3"/>
+      <c r="F175" t="str">
         <f t="shared" si="2"/>
         <v>( 171, 1, 690)</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -5115,12 +5296,13 @@
       <c r="D176" s="3">
         <v>1495</v>
       </c>
-      <c r="E176" t="str">
+      <c r="E176" s="3"/>
+      <c r="F176" t="str">
         <f t="shared" si="2"/>
         <v>( 172, 1, 1495)</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -5133,12 +5315,13 @@
       <c r="D177" s="4">
         <v>375</v>
       </c>
-      <c r="E177" t="str">
+      <c r="E177" s="4"/>
+      <c r="F177" t="str">
         <f t="shared" si="2"/>
         <v>( 173, 1, 375)</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -5151,12 +5334,13 @@
       <c r="D178" s="4">
         <v>595</v>
       </c>
-      <c r="E178" t="str">
+      <c r="E178" s="4"/>
+      <c r="F178" t="str">
         <f t="shared" si="2"/>
         <v>( 174, 1, 595)</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -5169,12 +5353,13 @@
       <c r="D179" s="4">
         <v>920</v>
       </c>
-      <c r="E179" t="str">
+      <c r="E179" s="4"/>
+      <c r="F179" t="str">
         <f t="shared" si="2"/>
         <v>( 175, 1, 920)</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -5187,12 +5372,13 @@
       <c r="D180" s="4">
         <v>1785</v>
       </c>
-      <c r="E180" t="str">
+      <c r="E180" s="4"/>
+      <c r="F180" t="str">
         <f t="shared" si="2"/>
         <v>( 176, 1, 1785)</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -5205,12 +5391,13 @@
       <c r="D181" s="3">
         <v>505</v>
       </c>
-      <c r="E181" t="str">
+      <c r="E181" s="3"/>
+      <c r="F181" t="str">
         <f t="shared" si="2"/>
         <v>( 177, 1, 505)</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -5223,12 +5410,13 @@
       <c r="D182" s="3">
         <v>740</v>
       </c>
-      <c r="E182" t="str">
+      <c r="E182" s="3"/>
+      <c r="F182" t="str">
         <f t="shared" si="2"/>
         <v>( 178, 1, 740)</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -5241,12 +5429,13 @@
       <c r="D183" s="3">
         <v>2015</v>
       </c>
-      <c r="E183" t="str">
+      <c r="E183" s="3"/>
+      <c r="F183" t="str">
         <f t="shared" si="2"/>
         <v>( 179, 1, 2015)</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -5259,12 +5448,13 @@
       <c r="D184" s="4">
         <v>360</v>
       </c>
-      <c r="E184" t="str">
+      <c r="E184" s="4"/>
+      <c r="F184" t="str">
         <f t="shared" si="2"/>
         <v>( 180, 1, 360)</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -5277,12 +5467,13 @@
       <c r="D185" s="4">
         <v>610</v>
       </c>
-      <c r="E185" t="str">
+      <c r="E185" s="4"/>
+      <c r="F185" t="str">
         <f t="shared" si="2"/>
         <v>( 181, 1, 610)</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -5295,12 +5486,13 @@
       <c r="D186" s="4">
         <v>970</v>
       </c>
-      <c r="E186" t="str">
+      <c r="E186" s="4"/>
+      <c r="F186" t="str">
         <f t="shared" si="2"/>
         <v>( 182, 1, 970)</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -5313,7 +5505,8 @@
       <c r="D187" s="4">
         <v>2140</v>
       </c>
-      <c r="E187" t="str">
+      <c r="E187" s="4"/>
+      <c r="F187" t="str">
         <f t="shared" si="2"/>
         <v>( 183, 1, 2140)</v>
       </c>

--- a/backend/data/plumData/plumTableData/plumPrice.xlsx
+++ b/backend/data/plumData/plumTableData/plumPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\projects\MY_PROJECTS\web_application\backend\data\plumData\plumTableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605422E-9911-4195-8AA9-2CB7743AEC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511194E6-FDE6-4CB2-BA3F-38149ECDE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{A0BBE691-86F4-4964-8F22-F4C94C854054}"/>
   </bookViews>
   <sheets>
     <sheet name="size" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="197">
   <si>
     <t>20mm</t>
   </si>
@@ -1098,8 +1098,8 @@
         <v>("20mm", "1/2\"")</v>
       </c>
       <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES",(TRANSPOSE(G2:G34)&amp;","))</f>
-        <v>INSERT INTO plumsizes (plumSizeImperial,plumSizeMetric) VALUES("20mm", "1/2\""),("25mm", "3/4\""),("32mm", "1\""),("40mm", "1 1/4\""),("50mm", "1 1/2\""),("63mm", "2\""),("75mm", "2 1/2\""),("90mm", "3\""),("110mm", "4\""),("25mm x 20mm", "3/4\" x 1/2\""),("32mm x 20mm", "1\" x 1/2\""),("32mm x 25mm", "1\" x 3/4\""),("40mm x 20mm", "1 1/4\" x 1/2\""),("40mm x 25mm", "1 1/4\" x 3/4\""),("40mm x 32mm", "1 1/4\" x 1\""),("50mmx 20mm", "1 1/2\" x 1/2\""),("50mm x 25mm", "1 1/2\" x 3/4\""),("50mm x 32mm", "1 1/2\" x 1\""),("50mm x 40mm", "1 1/2\" x 1 1/4\""),("63mm x 20mm", "2\" x 1/2\""),("63mm x 25mm", "2\" x 3/4\""),("63mm x 32mm", "2\" x 1\""),("63mm x 40mm", "2\" x 1 1/4\""),("63mm x 50mm", "2\" x 1 1/2\""),("90mm x 40mm", "3\" x 1 1/4\""),("90mm x 50mm", "3\" x 1 1/2\""),("90mm x 63mm", "3\" x 2\""),("90mm x 75mm", "3\" x 2 1/2\""),("110mm x 50mm", "4\" x 1 1/2\""),("110mm x 63mm", "4\" x 2\""),("110mm x 75mm", "4\" x 2 1/2\""),("110mm x 90mm", "4\" x 3\""),("160mm", "6\""),</v>
+        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plum_size (plum_size_imperial,plum_size_metric) VALUES",(TRANSPOSE(G2:G34)&amp;","))</f>
+        <v>INSERT INTO plum_size (plum_size_imperial,plum_size_metric) VALUES("20mm", "1/2\""),("25mm", "3/4\""),("32mm", "1\""),("40mm", "1 1/4\""),("50mm", "1 1/2\""),("63mm", "2\""),("75mm", "2 1/2\""),("90mm", "3\""),("110mm", "4\""),("25mm x 20mm", "3/4\" x 1/2\""),("32mm x 20mm", "1\" x 1/2\""),("32mm x 25mm", "1\" x 3/4\""),("40mm x 20mm", "1 1/4\" x 1/2\""),("40mm x 25mm", "1 1/4\" x 3/4\""),("40mm x 32mm", "1 1/4\" x 1\""),("50mmx 20mm", "1 1/2\" x 1/2\""),("50mm x 25mm", "1 1/2\" x 3/4\""),("50mm x 32mm", "1 1/2\" x 1\""),("50mm x 40mm", "1 1/2\" x 1 1/4\""),("63mm x 20mm", "2\" x 1/2\""),("63mm x 25mm", "2\" x 3/4\""),("63mm x 32mm", "2\" x 1\""),("63mm x 40mm", "2\" x 1 1/4\""),("63mm x 50mm", "2\" x 1 1/2\""),("90mm x 40mm", "3\" x 1 1/4\""),("90mm x 50mm", "3\" x 1 1/2\""),("90mm x 63mm", "3\" x 2\""),("90mm x 75mm", "3\" x 2 1/2\""),("110mm x 50mm", "4\" x 1 1/2\""),("110mm x 63mm", "4\" x 2\""),("110mm x 75mm", "4\" x 2 1/2\""),("110mm x 90mm", "4\" x 3\""),("160mm", "6\""),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDC410-2645-479E-B85E-F5D25DF089AA}">
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6950,8 +6950,8 @@
         <v>(1, 1, 2, 1, 2)</v>
       </c>
       <c r="H2" t="str" cm="1">
-        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES",(TRANSPOSE(G2:G176)&amp;","))</f>
-        <v>INSERT INTO plumfittinginfos (plumFittingId,plumBrandId,plumGradeId,plumSizeId,plumTypeId) VALUES(1, 1, 2, 1, 2),(1, 1, 4, 2, 2),(1, 1, 4, 3, 2),(1, 1, 4, 4, 2),(1, 1, 4, 5, 2),(1, 1, 4, 6, 2),(1, 1, 4, 7, 2),(1, 1, 4, 8, 2),(1, 1, 4, 9, 2),(2, 1, 2, 1, 2),(2, 1, 4, 2, 2),(2, 1, 4, 3, 2),(2, 1, 4, 4, 2),(2, 1, 4, 5, 2),(2, 1, 4, 6, 2),(2, 1, 4, 7, 2),(2, 1, 4, 8, 2),(2, 1, 4, 9, 2),(3, 1, 2, 1, 2),(3, 1, 4, 2, 2),(3, 1, 4, 3, 2),(3, 1, 4, 4, 2),(3, 1, 4, 5, 2),(3, 1, 4, 6, 2),(3, 1, 4, 7, 2),(3, 1, 4, 8, 2),(3, 1, 4, 9, 2),(4, 1, 2, 1, 2),(4, 1, 4, 2, 2),(4, 1, 4, 3, 2),(4, 1, 4, 4, 2),(4, 1, 4, 5, 2),(4, 1, 4, 6, 2),(4, 1, 4, 7, 2),(4, 1, 4, 8, 2),(4, 1, 4, 9, 2),(5, 1, 2, 1, 2),(5, 1, 4, 2, 2),(5, 1, 4, 3, 2),(5, 1, 4, 4, 2),(5, 1, 4, 5, 2),(5, 1, 4, 6, 2),(5, 1, 4, 7, 2),(5, 1, 4, 8, 2),(5, 1, 4, 9, 2),(6, 1, 2, 1, 2),(6, 1, 4, 2, 2),(6, 1, 4, 3, 2),(6, 1, 4, 4, 2),(6, 1, 4, 5, 2),(6, 1, 4, 6, 2),(6, 1, 4, 7, 2),(6, 1, 4, 8, 2),(6, 1, 4, 9, 2),(7, 1, 2, 1, 2),(7, 1, 4, 2, 2),(7, 1, 4, 3, 2),(7, 1, 4, 4, 2),(7, 1, 4, 5, 2),(7, 1, 4, 6, 2),(7, 1, 4, 7, 2),(7, 1, 4, 8, 2),(7, 1, 4, 9, 2),(8, 1, 2, 1, 2),(8, 1, 4, 2, 2),(8, 1, 4, 3, 2),(8, 1, 4, 4, 2),(8, 1, 4, 5, 2),(8, 1, 4, 6, 2),(8, 1, 4, 7, 2),(8, 1, 4, 8, 2),(8, 1, 4, 9, 2),(9, 1, 2, 1, 2),(9, 1, 4, 2, 2),(9, 1, 4, 3, 2),(9, 1, 4, 4, 2),(9, 1, 4, 5, 2),(9, 1, 4, 6, 2),(10, 1, 4, 10, 2),(10, 1, 4, 11, 2),(10, 1, 4, 12, 2),(10, 1, 4, 13, 2),(10, 1, 4, 14, 2),(10, 1, 4, 15, 2),(10, 1, 4, 16, 2),(10, 1, 4, 17, 2),(10, 1, 4, 18, 2),(10, 1, 4, 19, 2),(10, 1, 4, 20, 2),(10, 1, 4, 21, 2),(10, 1, 4, 22, 2),(10, 1, 4, 23, 2),(10, 1, 4, 24, 2),(10, 1, 4, 25, 2),(10, 1, 4, 26, 2),(10, 1, 4, 27, 2),(10, 1, 4, 28, 2),(10, 1, 4, 29, 2),(10, 1, 4, 30, 2),(10, 1, 4, 31, 2),(10, 1, 4, 32, 2),(11, 1, 4, 10, 2),(11, 1, 4, 11, 2),(11, 1, 4, 12, 2),(11, 1, 4, 13, 2),(11, 1, 4, 14, 2),(11, 1, 4, 15, 2),(11, 1, 4, 16, 2),(11, 1, 4, 17, 2),(11, 1, 4, 18, 2),(11, 1, 4, 19, 2),(11, 1, 4, 20, 2),(11, 1, 4, 21, 2),(11, 1, 4, 22, 2),(11, 1, 4, 23, 2),(11, 1, 4, 24, 2),(11, 1, 4, 25, 2),(11, 1, 4, 26, 2),(11, 1, 4, 27, 2),(11, 1, 4, 28, 2),(11, 1, 4, 29, 2),(11, 1, 4, 30, 2),(11, 1, 4, 31, 2),(11, 1, 4, 32, 2),(12, 1, 4, 10, 2),(13, 1, 4, 11, 2),(14, 1, 2, 1, 2),(15, 1, 2, 1, 2),(16, 1, 2, 1, 2),(17, 1, 2, 1, 2),(18, 1, 2, 1, 2),(19, 1, 5, 10, 2),(19, 1, 5, 11, 2),(20, 1, 5, 10, 2),(21, 1, 2, 1, 2),(21, 1, 4, 2, 2),(21, 1, 4, 3, 2),(9, 1, 9, 4, 4),(9, 1, 9, 5, 4),(9, 1, 9, 6, 4),(9, 1, 9, 9, 4),(6, 1, 9, 4, 4),(6, 1, 9, 5, 4),(6, 1, 9, 6, 4),(6, 1, 9, 9, 4),(5, 1, 9, 4, 4),(5, 1, 9, 5, 4),(5, 1, 9, 6, 4),(5, 1, 9, 9, 4),(22, 1, 9, 4, 4),(22, 1, 9, 5, 4),(22, 1, 9, 9, 4),(23, 1, 9, 4, 4),(23, 1, 9, 5, 4),(23, 1, 9, 6, 4),(23, 1, 9, 9, 4),(24, 1, 9, 4, 4),(24, 1, 9, 5, 4),(24, 1, 9, 6, 4),(24, 1, 9, 9, 4),(25, 1, 9, 4, 4),(25, 1, 9, 5, 4),(25, 1, 9, 6, 4),(25, 1, 9, 9, 4),(26, 1, 9, 4, 4),(26, 1, 9, 5, 4),(26, 1, 9, 6, 4),(26, 1, 9, 9, 4),(27, 1, 9, 4, 4),(27, 1, 9, 5, 4),(27, 1, 9, 9, 4),(28, 1, 9, 4, 4),(28, 1, 9, 5, 4),(28, 1, 9, 6, 4),(28, 1, 9, 9, 4),</v>
+        <f t="array" ref="H2">_xlfn.CONCAT("INSERT INTO plum_fitting_info (plum_fitting_id,plum_grade_id,plum_size_id,plum_type_id) VALUES",(TRANSPOSE(G2:G176)&amp;","))</f>
+        <v>INSERT INTO plum_fitting_info (plum_fitting_id,plum_grade_id,plum_size_id,plum_type_id) VALUES(1, 1, 2, 1, 2),(1, 1, 4, 2, 2),(1, 1, 4, 3, 2),(1, 1, 4, 4, 2),(1, 1, 4, 5, 2),(1, 1, 4, 6, 2),(1, 1, 4, 7, 2),(1, 1, 4, 8, 2),(1, 1, 4, 9, 2),(2, 1, 2, 1, 2),(2, 1, 4, 2, 2),(2, 1, 4, 3, 2),(2, 1, 4, 4, 2),(2, 1, 4, 5, 2),(2, 1, 4, 6, 2),(2, 1, 4, 7, 2),(2, 1, 4, 8, 2),(2, 1, 4, 9, 2),(3, 1, 2, 1, 2),(3, 1, 4, 2, 2),(3, 1, 4, 3, 2),(3, 1, 4, 4, 2),(3, 1, 4, 5, 2),(3, 1, 4, 6, 2),(3, 1, 4, 7, 2),(3, 1, 4, 8, 2),(3, 1, 4, 9, 2),(4, 1, 2, 1, 2),(4, 1, 4, 2, 2),(4, 1, 4, 3, 2),(4, 1, 4, 4, 2),(4, 1, 4, 5, 2),(4, 1, 4, 6, 2),(4, 1, 4, 7, 2),(4, 1, 4, 8, 2),(4, 1, 4, 9, 2),(5, 1, 2, 1, 2),(5, 1, 4, 2, 2),(5, 1, 4, 3, 2),(5, 1, 4, 4, 2),(5, 1, 4, 5, 2),(5, 1, 4, 6, 2),(5, 1, 4, 7, 2),(5, 1, 4, 8, 2),(5, 1, 4, 9, 2),(6, 1, 2, 1, 2),(6, 1, 4, 2, 2),(6, 1, 4, 3, 2),(6, 1, 4, 4, 2),(6, 1, 4, 5, 2),(6, 1, 4, 6, 2),(6, 1, 4, 7, 2),(6, 1, 4, 8, 2),(6, 1, 4, 9, 2),(7, 1, 2, 1, 2),(7, 1, 4, 2, 2),(7, 1, 4, 3, 2),(7, 1, 4, 4, 2),(7, 1, 4, 5, 2),(7, 1, 4, 6, 2),(7, 1, 4, 7, 2),(7, 1, 4, 8, 2),(7, 1, 4, 9, 2),(8, 1, 2, 1, 2),(8, 1, 4, 2, 2),(8, 1, 4, 3, 2),(8, 1, 4, 4, 2),(8, 1, 4, 5, 2),(8, 1, 4, 6, 2),(8, 1, 4, 7, 2),(8, 1, 4, 8, 2),(8, 1, 4, 9, 2),(9, 1, 2, 1, 2),(9, 1, 4, 2, 2),(9, 1, 4, 3, 2),(9, 1, 4, 4, 2),(9, 1, 4, 5, 2),(9, 1, 4, 6, 2),(10, 1, 4, 10, 2),(10, 1, 4, 11, 2),(10, 1, 4, 12, 2),(10, 1, 4, 13, 2),(10, 1, 4, 14, 2),(10, 1, 4, 15, 2),(10, 1, 4, 16, 2),(10, 1, 4, 17, 2),(10, 1, 4, 18, 2),(10, 1, 4, 19, 2),(10, 1, 4, 20, 2),(10, 1, 4, 21, 2),(10, 1, 4, 22, 2),(10, 1, 4, 23, 2),(10, 1, 4, 24, 2),(10, 1, 4, 25, 2),(10, 1, 4, 26, 2),(10, 1, 4, 27, 2),(10, 1, 4, 28, 2),(10, 1, 4, 29, 2),(10, 1, 4, 30, 2),(10, 1, 4, 31, 2),(10, 1, 4, 32, 2),(11, 1, 4, 10, 2),(11, 1, 4, 11, 2),(11, 1, 4, 12, 2),(11, 1, 4, 13, 2),(11, 1, 4, 14, 2),(11, 1, 4, 15, 2),(11, 1, 4, 16, 2),(11, 1, 4, 17, 2),(11, 1, 4, 18, 2),(11, 1, 4, 19, 2),(11, 1, 4, 20, 2),(11, 1, 4, 21, 2),(11, 1, 4, 22, 2),(11, 1, 4, 23, 2),(11, 1, 4, 24, 2),(11, 1, 4, 25, 2),(11, 1, 4, 26, 2),(11, 1, 4, 27, 2),(11, 1, 4, 28, 2),(11, 1, 4, 29, 2),(11, 1, 4, 30, 2),(11, 1, 4, 31, 2),(11, 1, 4, 32, 2),(12, 1, 4, 10, 2),(13, 1, 4, 11, 2),(14, 1, 2, 1, 2),(15, 1, 2, 1, 2),(16, 1, 2, 1, 2),(17, 1, 2, 1, 2),(18, 1, 2, 1, 2),(19, 1, 5, 10, 2),(19, 1, 5, 11, 2),(20, 1, 5, 10, 2),(21, 1, 2, 1, 2),(21, 1, 4, 2, 2),(21, 1, 4, 3, 2),(9, 1, 9, 4, 4),(9, 1, 9, 5, 4),(9, 1, 9, 6, 4),(9, 1, 9, 9, 4),(6, 1, 9, 4, 4),(6, 1, 9, 5, 4),(6, 1, 9, 6, 4),(6, 1, 9, 9, 4),(5, 1, 9, 4, 4),(5, 1, 9, 5, 4),(5, 1, 9, 6, 4),(5, 1, 9, 9, 4),(22, 1, 9, 4, 4),(22, 1, 9, 5, 4),(22, 1, 9, 9, 4),(23, 1, 9, 4, 4),(23, 1, 9, 5, 4),(23, 1, 9, 6, 4),(23, 1, 9, 9, 4),(24, 1, 9, 4, 4),(24, 1, 9, 5, 4),(24, 1, 9, 6, 4),(24, 1, 9, 9, 4),(25, 1, 9, 4, 4),(25, 1, 9, 5, 4),(25, 1, 9, 6, 4),(25, 1, 9, 9, 4),(26, 1, 9, 4, 4),(26, 1, 9, 5, 4),(26, 1, 9, 6, 4),(26, 1, 9, 9, 4),(27, 1, 9, 4, 4),(27, 1, 9, 5, 4),(27, 1, 9, 9, 4),(28, 1, 9, 4, 4),(28, 1, 9, 5, 4),(28, 1, 9, 6, 4),(28, 1, 9, 9, 4),</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11201,25 +11201,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD72405-4BAA-4BE0-9E9A-35EF3BE8961C}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -11230,22 +11229,19 @@
         <v>176</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11262,25 +11258,22 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <f>G2*3.28</f>
+        <f>F2*3.28</f>
         <v>13.12</v>
       </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT( "(",B2,", ", C2,", ", D2,", ", E2,", ", F2,", ", G2,", ", H2,")")</f>
-        <v>(1, 1, 1, 1, 1, 4, 13.12)</v>
-      </c>
-      <c r="J2" t="str" cm="1">
-        <f t="array" ref="J2">_xlfn.CONCAT("INSERT INTO plumpipeinfos (plumGradeId,plumSizeId,plumBrandId,plumPipeTypeId,plumPipeEndType,PlumPipeLengthMetric,plumPipeLengthImperial) VALUES",(TRANSPOSE(I2:I32)&amp;","))</f>
-        <v>INSERT INTO plumpipeinfos (plumGradeId,plumSizeId,plumBrandId,plumPipeTypeId,plumPipeEndType,PlumPipeLengthMetric,plumPipeLengthImperial) VALUES(1, 1, 1, 1, 1, 4, 13.12),(3, 2, 1, 1, 1, 4, 13.12),(3, 3, 1, 1, 1, 4, 13.12),(3, 4, 1, 1, 1, 4, 13.12),(3, 5, 1, 1, 1, 4, 13.12),(3, 6, 1, 1, 1, 4, 13.12),(3, 7, 1, 1, 1, 4, 13.12),(3, 8, 1, 1, 1, 4, 13.12),(3, 9, 1, 1, 1, 6, 19.68),(6, 2, 1, 1, 1, 4, 13.12),(6, 3, 1, 1, 1, 4, 13.12),(6, 4, 1, 1, 1, 4, 13.12),(6, 5, 1, 1, 1, 4, 13.12),(6, 6, 1, 1, 1, 4, 13.12),(6, 7, 1, 1, 1, 4, 13.12),(6, 8, 1, 1, 1, 4, 13.12),(6, 9, 1, 1, 1, 6, 19.68),(7, 5, 1, 2, 1, 4, 13.12),(7, 6, 1, 2, 1, 4, 13.12),(7, 7, 1, 2, 1, 4, 13.12),(7, 8, 1, 2, 1, 4, 13.12),(7, 9, 1, 2, 1, 6, 19.68),(7, 33, 1, 2, 1, 6, 19.68),(8, 9, 1, 2, 2, 6, 19.68),(8, 33, 1, 2, 2, 6, 19.68),(7, 5, 1, 2, 2, 4, 13.12),(7, 6, 1, 2, 2, 4, 13.12),(7, 7, 1, 2, 2, 4, 13.12),(7, 8, 1, 2, 2, 4, 13.12),(7, 9, 1, 2, 2, 6, 19.68),(7, 33, 1, 2, 2, 6, 19.68),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT( "(",B2,",", C2,",", D2,",", E2,",", F2,",", G2,")")</f>
+        <v>(1,1,1,1,4,13.12)</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">_xlfn.CONCAT("INSERT INTO plum_pipe_info (plum_grade_id,plum_size_id,plum_brand_id,plum_pipe_type_id,plum_pipe_end_type,plum_pipe_length_metric,plum_pipe_length_imperial) VALUES",(TRANSPOSE(H2:H32)&amp;","))</f>
+        <v>INSERT INTO plum_pipe_info (plum_grade_id,plum_size_id,plum_brand_id,plum_pipe_type_id,plum_pipe_end_type,plum_pipe_length_metric,plum_pipe_length_imperial) VALUES(1,1,1,1,4,13.12),(3,2,1,1,4,13.12),(3,3,1,1,4,13.12),(3,4,1,1,4,13.12),(3,5,1,1,4,13.12),(3,6,1,1,4,13.12),(3,7,1,1,4,13.12),(3,8,1,1,4,13.12),(3,9,1,1,6,19.68),(6,2,1,1,4,13.12),(6,3,1,1,4,13.12),(6,4,1,1,4,13.12),(6,5,1,1,4,13.12),(6,6,1,1,4,13.12),(6,7,1,1,4,13.12),(6,8,1,1,4,13.12),(6,9,1,1,6,19.68),(7,5,2,1,4,13.12),(7,6,2,1,4,13.12),(7,7,2,1,4,13.12),(7,8,2,1,4,13.12),(7,9,2,1,6,19.68),(7,33,2,1,6,19.68),(8,9,2,2,6,19.68),(8,33,2,2,6,19.68),(7,5,2,2,4,13.12),(7,6,2,2,4,13.12),(7,7,2,2,4,13.12),(7,8,2,2,4,13.12),(7,9,2,2,6,19.68),(7,33,2,2,6,19.68),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11297,21 +11290,18 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H32" si="0">G3*3.28</f>
+        <f t="shared" ref="G3:G32" si="0">F3*3.28</f>
         <v>13.12</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I32" si="1">_xlfn.CONCAT( "(",B3,", ", C3,", ", D3,", ", E3,", ", F3,", ", G3,", ", H3,")")</f>
-        <v>(3, 2, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f>_xlfn.CONCAT( "(",B3,",", C3,",", D3,",", E3,",", F3,",", G3,")")</f>
+        <v>(3,2,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11328,21 +11318,18 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 3, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f>_xlfn.CONCAT( "(",B4,",", C4,",", D4,",", E4,",", F4,",", G4,")")</f>
+        <v>(3,3,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11359,21 +11346,18 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 4, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f>_xlfn.CONCAT( "(",B5,",", C5,",", D5,",", E5,",", F5,",", G5,")")</f>
+        <v>(3,4,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11390,21 +11374,18 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 5, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f>_xlfn.CONCAT( "(",B6,",", C6,",", D6,",", E6,",", F6,",", G6,")")</f>
+        <v>(3,5,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11421,21 +11402,18 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 6, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f>_xlfn.CONCAT( "(",B7,",", C7,",", D7,",", E7,",", F7,",", G7,")")</f>
+        <v>(3,6,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11452,21 +11430,18 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 7, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f>_xlfn.CONCAT( "(",B8,",", C8,",", D8,",", E8,",", F8,",", G8,")")</f>
+        <v>(3,7,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11483,21 +11458,18 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 8, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f>_xlfn.CONCAT( "(",B9,",", C9,",", D9,",", E9,",", F9,",", G9,")")</f>
+        <v>(3,8,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11514,21 +11486,18 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v>(3, 9, 1, 1, 1, 6, 19.68)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f>_xlfn.CONCAT( "(",B10,",", C10,",", D10,",", E10,",", F10,",", G10,")")</f>
+        <v>(3,9,1,1,6,19.68)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11545,21 +11514,18 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 2, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT( "(",B11,",", C11,",", D11,",", E11,",", F11,",", G11,")")</f>
+        <v>(6,2,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11576,21 +11542,18 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 3, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT( "(",B12,",", C12,",", D12,",", E12,",", F12,",", G12,")")</f>
+        <v>(6,3,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11607,21 +11570,18 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 4, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT( "(",B13,",", C13,",", D13,",", E13,",", F13,",", G13,")")</f>
+        <v>(6,4,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11638,21 +11598,18 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 5, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f>_xlfn.CONCAT( "(",B14,",", C14,",", D14,",", E14,",", F14,",", G14,")")</f>
+        <v>(6,5,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11669,21 +11626,18 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 6, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f>_xlfn.CONCAT( "(",B15,",", C15,",", D15,",", E15,",", F15,",", G15,")")</f>
+        <v>(6,6,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11700,21 +11654,18 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 7, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f>_xlfn.CONCAT( "(",B16,",", C16,",", D16,",", E16,",", F16,",", G16,")")</f>
+        <v>(6,7,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11731,21 +11682,18 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 8, 1, 1, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f>_xlfn.CONCAT( "(",B17,",", C17,",", D17,",", E17,",", F17,",", G17,")")</f>
+        <v>(6,8,1,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11762,21 +11710,18 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v>(6, 9, 1, 1, 1, 6, 19.68)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f>_xlfn.CONCAT( "(",B18,",", C18,",", D18,",", E18,",", F18,",", G18,")")</f>
+        <v>(6,9,1,1,6,19.68)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11787,27 +11732,24 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 5, 1, 2, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f>_xlfn.CONCAT( "(",B19,",", C19,",", D19,",", E19,",", F19,",", G19,")")</f>
+        <v>(7,5,2,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11818,27 +11760,24 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 6, 1, 2, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f>_xlfn.CONCAT( "(",B20,",", C20,",", D20,",", E20,",", F20,",", G20,")")</f>
+        <v>(7,6,2,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11849,27 +11788,24 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 7, 1, 2, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f>_xlfn.CONCAT( "(",B21,",", C21,",", D21,",", E21,",", F21,",", G21,")")</f>
+        <v>(7,7,2,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11880,27 +11816,24 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 8, 1, 2, 1, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <f>_xlfn.CONCAT( "(",B22,",", C22,",", D22,",", E22,",", F22,",", G22,")")</f>
+        <v>(7,8,2,1,4,13.12)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11911,27 +11844,24 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>6</v>
-      </c>
-      <c r="H23">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 9, 1, 2, 1, 6, 19.68)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f>_xlfn.CONCAT( "(",B23,",", C23,",", D23,",", E23,",", F23,",", G23,")")</f>
+        <v>(7,9,2,1,6,19.68)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11942,27 +11872,24 @@
         <v>33</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 33, 1, 2, 1, 6, 19.68)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <f>_xlfn.CONCAT( "(",B24,",", C24,",", D24,",", E24,",", F24,",", G24,")")</f>
+        <v>(7,33,2,1,6,19.68)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11973,27 +11900,24 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v>(8, 9, 1, 2, 2, 6, 19.68)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <f>_xlfn.CONCAT( "(",B25,",", C25,",", D25,",", E25,",", F25,",", G25,")")</f>
+        <v>(8,9,2,2,6,19.68)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12004,27 +11928,24 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>6</v>
-      </c>
-      <c r="H26">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v>(8, 33, 1, 2, 2, 6, 19.68)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <f>_xlfn.CONCAT( "(",B26,",", C26,",", D26,",", E26,",", F26,",", G26,")")</f>
+        <v>(8,33,2,2,6,19.68)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12035,27 +11956,24 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 5, 1, 2, 2, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <f>_xlfn.CONCAT( "(",B27,",", C27,",", D27,",", E27,",", F27,",", G27,")")</f>
+        <v>(7,5,2,2,4,13.12)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12066,27 +11984,24 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 6, 1, 2, 2, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <f>_xlfn.CONCAT( "(",B28,",", C28,",", D28,",", E28,",", F28,",", G28,")")</f>
+        <v>(7,6,2,2,4,13.12)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12097,27 +12012,24 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 7, 1, 2, 2, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <f>_xlfn.CONCAT( "(",B29,",", C29,",", D29,",", E29,",", F29,",", G29,")")</f>
+        <v>(7,7,2,2,4,13.12)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12128,27 +12040,24 @@
         <v>8</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30">
         <f t="shared" si="0"/>
         <v>13.12</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 8, 1, 2, 2, 4, 13.12)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <f>_xlfn.CONCAT( "(",B30,",", C30,",", D30,",", E30,",", F30,",", G30,")")</f>
+        <v>(7,8,2,2,4,13.12)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12159,27 +12068,24 @@
         <v>9</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 9, 1, 2, 2, 6, 19.68)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <f>_xlfn.CONCAT( "(",B31,",", C31,",", D31,",", E31,",", F31,",", G31,")")</f>
+        <v>(7,9,2,2,6,19.68)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12190,24 +12096,21 @@
         <v>33</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
         <f t="shared" si="0"/>
         <v>19.68</v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v>(7, 33, 1, 2, 2, 6, 19.68)</v>
+      <c r="H32" t="str">
+        <f>_xlfn.CONCAT( "(",B32,",", C32,",", D32,",", E32,",", F32,",", G32,")")</f>
+        <v>(7,33,2,2,6,19.68)</v>
       </c>
     </row>
   </sheetData>
